--- a/zutnlp-master/zutnlp-text/doc/log/曾辉祥.xlsx
+++ b/zutnlp-master/zutnlp-text/doc/log/曾辉祥.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>日志报告</t>
   </si>
@@ -127,6 +127,20 @@
   </si>
   <si>
     <t>2018.07.23</t>
+  </si>
+  <si>
+    <t>搭载总框架，使用spring boot
+连接数据库</t>
+  </si>
+  <si>
+    <t>数据还是死数据</t>
+  </si>
+  <si>
+    <t>2018.07.24</t>
+  </si>
+  <si>
+    <t>解决死数据问题，建立一个
+模块</t>
   </si>
 </sst>
 </file>
@@ -164,14 +178,63 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -182,24 +245,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,53 +276,25 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,38 +306,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,13 +331,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,169 +403,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +522,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,17 +573,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,15 +608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -588,26 +622,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,137 +642,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,6 +784,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1095,15 +1112,15 @@
   <sheetPr/>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
@@ -1228,15 +1245,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="40" customHeight="1" spans="1:2">
+    <row r="10" ht="40" customHeight="1" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="11" ht="40" customHeight="1"/>
+    <row r="11" ht="40" customHeight="1" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="12" ht="40" customHeight="1"/>
     <row r="13" ht="40" customHeight="1"/>
     <row r="14" ht="40" customHeight="1"/>
